--- a/Data Extraction/Self-Monitoring Agreement/TechPT - 2024.10.20 - Data - CARExCONF - SelfMonitoring V1.xlsx
+++ b/Data Extraction/Self-Monitoring Agreement/TechPT - 2024.10.20 - Data - CARExCONF - SelfMonitoring V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralmichigan-my.sharepoint.com/personal/wyse1r_cmich_edu/Documents/TechCT/TechCT - Public Repository/GitHub/Data Extraction/Self-Monitoring Agreement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralmichigan-my.sharepoint.com/personal/wyse1r_cmich_edu/Documents/TechCT/TechCT - Public Repository/Public - GitHub - TechCT/Data Extraction/Self-Monitoring Agreement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="527" documentId="8_{D49637AF-FFC2-4E69-BB89-24DCE76365F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D84FD0E-6C49-4CD3-8213-BFF8898AB862}"/>
+  <xr:revisionPtr revIDLastSave="811" documentId="8_{D49637AF-FFC2-4E69-BB89-24DCE76365F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94DCE2E-9864-4425-A1F3-D69A4E8B5374}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="20775" yWindow="7425" windowWidth="32925" windowHeight="13875" activeTab="2" xr2:uid="{AC73DC15-69F3-4BCE-835C-F6338ECF80C6}"/>
+    <workbookView xWindow="18765" yWindow="2160" windowWidth="32925" windowHeight="13875" activeTab="2" xr2:uid="{AC73DC15-69F3-4BCE-835C-F6338ECF80C6}"/>
   </bookViews>
   <sheets>
     <sheet name="TechPT - 2024.10.18 - Data - IO" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7335" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7845" uniqueCount="1293">
   <si>
     <t>InstanceID</t>
   </si>
@@ -3983,12 +3983,54 @@
       <t>: Expected</t>
     </r>
   </si>
+  <si>
+    <t>Conf</t>
+  </si>
+  <si>
+    <t>Ioa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduate student </t>
+  </si>
+  <si>
+    <t>Caregiver</t>
+  </si>
+  <si>
+    <t>TechPT - 2024.10.21 - Data - CARExIOA - SelfMonitoring - CSV - V1.csv</t>
+  </si>
+  <si>
+    <t>CareXResearcher</t>
+  </si>
+  <si>
+    <t>IOA x Care</t>
+  </si>
+  <si>
+    <t>IOA x Researcher</t>
+  </si>
+  <si>
+    <t>Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x  </t>
+  </si>
+  <si>
+    <t>IOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Researcher</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4154,6 +4196,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4337,7 +4391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4452,6 +4506,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4497,7 +4573,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4510,12 +4586,29 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -33528,8 +33621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC17D0A-5B3A-4088-81A1-E8D4CAFC22F1}">
   <dimension ref="A2:AR124"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69:V124"/>
+    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69:V126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41099,8 +41192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31481092-C977-4807-8101-76363B3A004B}">
   <dimension ref="A1:CY306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY273" sqref="AY273"/>
+    <sheetView tabSelected="1" topLeftCell="AR99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BE115" sqref="BE115:BI126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41110,9 +41203,11 @@
     <col min="23" max="31" width="16.42578125" customWidth="1"/>
     <col min="42" max="42" width="37.140625" customWidth="1"/>
     <col min="43" max="43" width="68.28515625" customWidth="1"/>
+    <col min="50" max="50" width="89.28515625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="6.85546875" customWidth="1"/>
     <col min="65" max="65" width="9.140625" hidden="1" customWidth="1"/>
     <col min="66" max="66" width="54" customWidth="1"/>
+    <col min="79" max="79" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41422,19 +41517,19 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="9" t="s">
         <v>1244</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="9" t="s">
         <v>1245</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="9" t="s">
         <v>1246</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="Z8" s="9" t="s">
         <v>1247</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AA8" s="9" t="s">
         <v>1248</v>
       </c>
       <c r="AB8" s="2" t="s">
@@ -41446,7 +41541,7 @@
       <c r="AD8" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AE8" s="9" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -41493,15 +41588,15 @@
       <c r="N9" s="1">
         <v>-1.6653345369377301E-15</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="6"/>
+      <c r="AE9" s="9"/>
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -42013,31 +42108,31 @@
         <v>84.570519618239615</v>
       </c>
       <c r="BQ22">
-        <f>SUM(BQ24:BQ31)</f>
+        <f t="shared" ref="BQ22:BW22" si="0">SUM(BQ24:BQ31)</f>
         <v>238</v>
       </c>
       <c r="BR22">
-        <f>SUM(BR24:BR31)</f>
+        <f t="shared" si="0"/>
         <v>194</v>
       </c>
       <c r="BS22">
-        <f>SUM(BS24:BS31)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="BT22">
-        <f>SUM(BT24:BT31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BU22">
-        <f>SUM(BU24:BU31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BV22">
-        <f>SUM(BV24:BV31)</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="BW22">
-        <f>SUM(BW24:BW31)</f>
+        <f t="shared" si="0"/>
         <v>238</v>
       </c>
     </row>
@@ -43567,7 +43662,7 @@
         <v>1</v>
       </c>
       <c r="X33" s="5">
-        <f t="shared" ref="X33:AE33" si="0">X14/100</f>
+        <f t="shared" ref="X33:AE33" si="1">X14/100</f>
         <v>1</v>
       </c>
       <c r="Y33" s="5">
@@ -43595,34 +43690,34 @@
         <v>0.89333333333333298</v>
       </c>
       <c r="AE33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90804597701149403</v>
       </c>
       <c r="BQ33" t="s">
         <v>1259</v>
       </c>
       <c r="BR33">
-        <f>SUM(BR24:BR31)</f>
+        <f t="shared" ref="BR33:BW33" si="2">SUM(BR24:BR31)</f>
         <v>194</v>
       </c>
       <c r="BS33">
-        <f>SUM(BS24:BS31)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="BT33">
-        <f>SUM(BT24:BT31)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BU33">
-        <f>SUM(BU24:BU31)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BV33">
-        <f>SUM(BV24:BV31)</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="BW33">
-        <f>SUM(BW24:BW31)</f>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="BX33">
@@ -45892,23 +45987,23 @@
         <v>126</v>
       </c>
       <c r="BS69">
-        <f t="shared" ref="BS69:BW69" si="1">SUM(BS60:BS67)</f>
+        <f t="shared" ref="BS69:BW69" si="3">SUM(BS60:BS67)</f>
         <v>1</v>
       </c>
       <c r="BT69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BV69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="BW69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="BX69">
@@ -46391,7 +46486,7 @@
       </c>
     </row>
     <row r="97" spans="42:82" x14ac:dyDescent="0.25">
-      <c r="AP97" s="7"/>
+      <c r="AP97" s="6"/>
     </row>
     <row r="99" spans="42:82" x14ac:dyDescent="0.25">
       <c r="BN99" t="s">
@@ -46435,6 +46530,9 @@
       </c>
     </row>
     <row r="100" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX100" t="s">
+        <v>1163</v>
+      </c>
       <c r="BN100" t="s">
         <v>1144</v>
       </c>
@@ -46476,6 +46574,21 @@
       </c>
     </row>
     <row r="101" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX101" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AY101" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AZ101" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BA101" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BB101" t="s">
+        <v>1107</v>
+      </c>
       <c r="BN101" t="s">
         <v>1145</v>
       </c>
@@ -46517,6 +46630,21 @@
       </c>
     </row>
     <row r="102" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX102" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AY102">
+        <v>1</v>
+      </c>
+      <c r="AZ102">
+        <v>100</v>
+      </c>
+      <c r="BA102">
+        <v>23</v>
+      </c>
+      <c r="BB102">
+        <v>23</v>
+      </c>
       <c r="BN102" t="s">
         <v>1146</v>
       </c>
@@ -46561,6 +46689,21 @@
       </c>
     </row>
     <row r="103" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX103" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AY103">
+        <v>1</v>
+      </c>
+      <c r="AZ103">
+        <v>100</v>
+      </c>
+      <c r="BA103">
+        <v>23</v>
+      </c>
+      <c r="BB103">
+        <v>23</v>
+      </c>
       <c r="BN103" t="s">
         <v>1147</v>
       </c>
@@ -46602,6 +46745,21 @@
       </c>
     </row>
     <row r="104" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX104" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>60.975609756097498</v>
+      </c>
+      <c r="BA104">
+        <v>41</v>
+      </c>
+      <c r="BB104">
+        <v>25</v>
+      </c>
       <c r="BN104" t="s">
         <v>1148</v>
       </c>
@@ -46643,6 +46801,21 @@
       </c>
     </row>
     <row r="105" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX105" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AY105">
+        <v>0.114197530864197</v>
+      </c>
+      <c r="AZ105">
+        <v>65.8536585365853</v>
+      </c>
+      <c r="BA105">
+        <v>41</v>
+      </c>
+      <c r="BB105">
+        <v>25</v>
+      </c>
       <c r="BN105" t="s">
         <v>1149</v>
       </c>
@@ -46687,6 +46860,21 @@
       </c>
     </row>
     <row r="106" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX106" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>97.560975609756099</v>
+      </c>
+      <c r="BA106">
+        <v>41</v>
+      </c>
+      <c r="BB106">
+        <v>40</v>
+      </c>
       <c r="BN106" t="s">
         <v>1150</v>
       </c>
@@ -46728,6 +46916,21 @@
       </c>
     </row>
     <row r="107" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX107" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AY107">
+        <v>0.160583941605839</v>
+      </c>
+      <c r="AZ107">
+        <v>56.521739130434703</v>
+      </c>
+      <c r="BA107">
+        <v>23</v>
+      </c>
+      <c r="BB107">
+        <v>11</v>
+      </c>
       <c r="BN107" t="s">
         <v>1151</v>
       </c>
@@ -46771,7 +46974,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="108" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX108" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>78.260869565217305</v>
+      </c>
+      <c r="BA108">
+        <v>23</v>
+      </c>
+      <c r="BB108">
+        <v>18</v>
+      </c>
+    </row>
     <row r="109" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX109" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>82.608695652173907</v>
+      </c>
+      <c r="BA109">
+        <v>23</v>
+      </c>
+      <c r="BB109">
+        <v>19</v>
+      </c>
       <c r="BQ109" t="s">
         <v>1261</v>
       </c>
@@ -46780,19 +47015,19 @@
         <v>231</v>
       </c>
       <c r="BS109">
-        <f t="shared" ref="BS109:BV109" si="2">SUM(BS100:BS107)</f>
+        <f t="shared" ref="BS109:BV109" si="4">SUM(BS100:BS107)</f>
         <v>13</v>
       </c>
       <c r="BT109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BU109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BV109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
       <c r="BW109">
@@ -46829,6 +47064,21 @@
       </c>
     </row>
     <row r="110" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX110" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>91.304347826086897</v>
+      </c>
+      <c r="BA110">
+        <v>23</v>
+      </c>
+      <c r="BB110">
+        <v>21</v>
+      </c>
       <c r="BR110" t="s">
         <v>1088</v>
       </c>
@@ -46869,12 +47119,226 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="118" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="111" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX111" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AY111">
+        <v>1</v>
+      </c>
+      <c r="AZ111">
+        <v>100</v>
+      </c>
+      <c r="BA111">
+        <v>14</v>
+      </c>
+      <c r="BB111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="42:82" x14ac:dyDescent="0.25">
+      <c r="AX112" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AY112">
+        <v>1</v>
+      </c>
+      <c r="AZ112">
+        <v>100</v>
+      </c>
+      <c r="BA112">
+        <v>14</v>
+      </c>
+      <c r="BB112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX113" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AY113">
+        <v>1</v>
+      </c>
+      <c r="AZ113">
+        <v>100</v>
+      </c>
+      <c r="BA113">
+        <v>19</v>
+      </c>
+      <c r="BB113">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX114" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AY114">
+        <v>1</v>
+      </c>
+      <c r="AZ114">
+        <v>100</v>
+      </c>
+      <c r="BA114">
+        <v>19</v>
+      </c>
+      <c r="BB114">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX115" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AY115">
+        <v>1</v>
+      </c>
+      <c r="AZ115">
+        <v>100</v>
+      </c>
+      <c r="BA115">
+        <v>19</v>
+      </c>
+      <c r="BB115">
+        <v>19</v>
+      </c>
+      <c r="BE115" s="16"/>
+      <c r="BF115" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BG115" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="BH115" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="BI115" s="9" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="116" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX116" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>50</v>
+      </c>
+      <c r="BA116">
+        <v>14</v>
+      </c>
+      <c r="BB116">
+        <v>7</v>
+      </c>
+      <c r="BE116" s="16"/>
+      <c r="BF116" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BG116" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="BH116" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="BI116" s="9"/>
+    </row>
+    <row r="117" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX117" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AY117">
+        <v>1</v>
+      </c>
+      <c r="AZ117">
+        <v>100</v>
+      </c>
+      <c r="BA117">
+        <v>14</v>
+      </c>
+      <c r="BB117">
+        <v>14</v>
+      </c>
+      <c r="BE117" s="16"/>
+      <c r="BF117" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BG117" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="BH117" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="BI117" s="9"/>
+    </row>
+    <row r="118" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX118" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>92.857142857142804</v>
+      </c>
+      <c r="BA118">
+        <v>14</v>
+      </c>
+      <c r="BB118">
+        <v>13</v>
+      </c>
+      <c r="BE118" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BF118" s="11">
+        <v>38</v>
+      </c>
+      <c r="BG118" s="11">
+        <v>75</v>
+      </c>
+      <c r="BH118" s="11">
+        <v>80</v>
+      </c>
+      <c r="BI118" s="11">
+        <v>193</v>
+      </c>
       <c r="BN118" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="119" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="119" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX119" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AY119">
+        <v>1</v>
+      </c>
+      <c r="AZ119">
+        <v>100</v>
+      </c>
+      <c r="BA119">
+        <v>14</v>
+      </c>
+      <c r="BB119">
+        <v>14</v>
+      </c>
+      <c r="BE119" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="BF119" s="11">
+        <v>18</v>
+      </c>
+      <c r="BG119" s="11">
+        <v>38</v>
+      </c>
+      <c r="BH119" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI119" s="11">
+        <v>57</v>
+      </c>
       <c r="BN119" t="s">
         <v>1063</v>
       </c>
@@ -46918,7 +47382,37 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="120" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="120" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX120" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AY120">
+        <v>1</v>
+      </c>
+      <c r="AZ120">
+        <v>100</v>
+      </c>
+      <c r="BA120">
+        <v>38</v>
+      </c>
+      <c r="BB120">
+        <v>38</v>
+      </c>
+      <c r="BE120" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="BF120" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG120" s="11">
+        <v>18</v>
+      </c>
+      <c r="BH120" s="11">
+        <v>4</v>
+      </c>
+      <c r="BI120" s="11">
+        <v>22</v>
+      </c>
       <c r="BN120" t="s">
         <v>1136</v>
       </c>
@@ -46959,7 +47453,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="121" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX121" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AY121">
+        <v>1</v>
+      </c>
+      <c r="AZ121">
+        <v>100</v>
+      </c>
+      <c r="BA121">
+        <v>38</v>
+      </c>
+      <c r="BB121">
+        <v>38</v>
+      </c>
+      <c r="BE121" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BF121" s="11">
+        <v>19</v>
+      </c>
+      <c r="BG121" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH121" s="11">
+        <v>52</v>
+      </c>
+      <c r="BI121" s="11">
+        <v>71</v>
+      </c>
       <c r="BN121" t="s">
         <v>1137</v>
       </c>
@@ -47000,7 +47524,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="122" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX122" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>94.4444444444444</v>
+      </c>
+      <c r="BA122">
+        <v>18</v>
+      </c>
+      <c r="BB122">
+        <v>17</v>
+      </c>
+      <c r="BE122" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BF122" s="11">
+        <v>57</v>
+      </c>
+      <c r="BG122" s="11">
+        <v>19</v>
+      </c>
+      <c r="BH122" s="11">
+        <v>132</v>
+      </c>
+      <c r="BI122" s="11">
+        <v>14</v>
+      </c>
       <c r="BN122" t="s">
         <v>1152</v>
       </c>
@@ -47044,7 +47598,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="123" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX123" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AY123">
+        <v>1</v>
+      </c>
+      <c r="AZ123">
+        <v>100</v>
+      </c>
+      <c r="BA123">
+        <v>18</v>
+      </c>
+      <c r="BB123">
+        <v>18</v>
+      </c>
+      <c r="BE123" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BF123" s="11">
+        <v>76</v>
+      </c>
+      <c r="BG123" s="11">
+        <v>57</v>
+      </c>
+      <c r="BH123" s="11">
+        <v>137</v>
+      </c>
+      <c r="BI123" s="11">
+        <v>16</v>
+      </c>
       <c r="BN123" t="s">
         <v>1153</v>
       </c>
@@ -47088,7 +47672,37 @@
         <v>0.114197530864197</v>
       </c>
     </row>
-    <row r="124" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="124" spans="50:79" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="AX124" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AY124">
+        <v>1</v>
+      </c>
+      <c r="AZ124">
+        <v>100</v>
+      </c>
+      <c r="BA124">
+        <v>18</v>
+      </c>
+      <c r="BB124">
+        <v>18</v>
+      </c>
+      <c r="BE124" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="BF124" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="BG124" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="BH124" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="BI124" s="11">
+        <v>0.88</v>
+      </c>
       <c r="BN124" t="s">
         <v>1154</v>
       </c>
@@ -47132,7 +47746,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="125" spans="50:79" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AX125" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AY125">
+        <v>0.94707520891364905</v>
+      </c>
+      <c r="AZ125">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="BA125">
+        <v>38</v>
+      </c>
+      <c r="BB125">
+        <v>20</v>
+      </c>
+      <c r="BE125" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BF125" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="BG125" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="BH125" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="BI125" s="14">
+        <v>0.5</v>
+      </c>
       <c r="BN125" t="s">
         <v>1138</v>
       </c>
@@ -47176,7 +47820,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="126" spans="50:79" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AX126" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>84.210526315789394</v>
+      </c>
+      <c r="BA126">
+        <v>38</v>
+      </c>
+      <c r="BB126">
+        <v>32</v>
+      </c>
+      <c r="BE126" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="BF126" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="BG126" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="BH126" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="BI126" s="15">
+        <v>0.75</v>
+      </c>
       <c r="BN126" t="s">
         <v>1139</v>
       </c>
@@ -47220,7 +47894,22 @@
         <v>-6.3837823915946501E-16</v>
       </c>
     </row>
-    <row r="127" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="127" spans="50:79" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AX127" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AY127">
+        <v>1</v>
+      </c>
+      <c r="AZ127">
+        <v>100</v>
+      </c>
+      <c r="BA127">
+        <v>38</v>
+      </c>
+      <c r="BB127">
+        <v>38</v>
+      </c>
       <c r="BN127" t="s">
         <v>1140</v>
       </c>
@@ -47264,7 +47953,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="128" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX128" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>84.210526315789394</v>
+      </c>
+      <c r="BA128">
+        <v>38</v>
+      </c>
+      <c r="BB128">
+        <v>32</v>
+      </c>
       <c r="BN128" t="s">
         <v>1156</v>
       </c>
@@ -47305,7 +48009,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="129" spans="50:79" x14ac:dyDescent="0.25">
+      <c r="AX129" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AY129">
+        <v>0.326986490798851</v>
+      </c>
+      <c r="AZ129">
+        <v>89.181286549707593</v>
+      </c>
+      <c r="BA129">
+        <v>684</v>
+      </c>
+      <c r="BB129">
+        <v>589</v>
+      </c>
       <c r="BN129" t="s">
         <v>1157</v>
       </c>
@@ -47346,7 +48065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="130" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN130" t="s">
         <v>1141</v>
       </c>
@@ -47387,7 +48106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="131" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN131" t="s">
         <v>1142</v>
       </c>
@@ -47428,7 +48147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="132" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN132" t="s">
         <v>1143</v>
       </c>
@@ -47469,7 +48188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="133" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN133" t="s">
         <v>1159</v>
       </c>
@@ -47510,7 +48229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="134" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN134" t="s">
         <v>1160</v>
       </c>
@@ -47554,7 +48273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="135" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN135" t="s">
         <v>1161</v>
       </c>
@@ -47595,7 +48314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="136" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN136" t="s">
         <v>1144</v>
       </c>
@@ -47636,7 +48355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="137" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN137" t="s">
         <v>1145</v>
       </c>
@@ -47677,7 +48396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="138" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN138" t="s">
         <v>1146</v>
       </c>
@@ -47721,7 +48440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="139" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN139" t="s">
         <v>1147</v>
       </c>
@@ -47762,7 +48481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="140" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN140" t="s">
         <v>1148</v>
       </c>
@@ -47803,7 +48522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="141" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN141" t="s">
         <v>1149</v>
       </c>
@@ -47847,7 +48566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="142" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN142" t="s">
         <v>1150</v>
       </c>
@@ -47888,7 +48607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="143" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN143" t="s">
         <v>1151</v>
       </c>
@@ -47932,7 +48651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="66:79" x14ac:dyDescent="0.25">
+    <row r="144" spans="50:79" x14ac:dyDescent="0.25">
       <c r="BN144" t="s">
         <v>1133</v>
       </c>
@@ -47977,7 +48696,7 @@
       </c>
     </row>
     <row r="146" spans="59:79" x14ac:dyDescent="0.25">
-      <c r="BH146" s="7" t="s">
+      <c r="BH146" s="6" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -48005,8 +48724,8 @@
       <c r="BJ148">
         <v>231</v>
       </c>
-      <c r="BK148" s="8">
-        <f>SUM(BH148:BJ148)</f>
+      <c r="BK148" s="7">
+        <f t="shared" ref="BK148:BK153" si="5">SUM(BH148:BJ148)</f>
         <v>551</v>
       </c>
       <c r="BL148" t="s">
@@ -48026,8 +48745,8 @@
       <c r="BJ149">
         <v>13</v>
       </c>
-      <c r="BK149" s="8">
-        <f>SUM(BH149:BJ149)</f>
+      <c r="BK149" s="7">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="BL149" t="s">
@@ -48047,8 +48766,8 @@
       <c r="BJ150">
         <v>0</v>
       </c>
-      <c r="BK150" s="8">
-        <f>SUM(BH150:BJ150)</f>
+      <c r="BK150" s="7">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BL150" t="s">
@@ -48068,8 +48787,8 @@
       <c r="BJ151">
         <v>0</v>
       </c>
-      <c r="BK151" s="8">
-        <f>SUM(BH151:BJ151)</f>
+      <c r="BK151" s="7">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BL151" t="s">
@@ -48089,8 +48808,8 @@
       <c r="BJ152">
         <v>231</v>
       </c>
-      <c r="BK152" s="8">
-        <f>SUM(BH152:BJ152)</f>
+      <c r="BK152" s="7">
+        <f t="shared" si="5"/>
         <v>553</v>
       </c>
       <c r="BL152" t="s">
@@ -48110,8 +48829,8 @@
       <c r="BJ153">
         <v>244</v>
       </c>
-      <c r="BK153" s="8">
-        <f>SUM(BH153:BJ153)</f>
+      <c r="BK153" s="7">
+        <f t="shared" si="5"/>
         <v>609</v>
       </c>
       <c r="BL153" t="s">
@@ -48131,7 +48850,7 @@
       <c r="BJ154" s="5">
         <v>0.94672131147540983</v>
       </c>
-      <c r="BK154" s="9">
+      <c r="BK154" s="8">
         <f>BK152/BK153</f>
         <v>0.90804597701149425</v>
       </c>
@@ -48152,7 +48871,7 @@
       <c r="BJ155" s="5">
         <v>0.94672131147540983</v>
       </c>
-      <c r="BK155" s="9">
+      <c r="BK155" s="8">
         <f>(((BK148+BK149)/BK153)*((BK150+BK148)/BK153))</f>
         <v>0.90193889684292272</v>
       </c>
@@ -48215,7 +48934,7 @@
       <c r="BJ156" s="5">
         <v>0</v>
       </c>
-      <c r="BK156" s="9">
+      <c r="BK156" s="8">
         <f>(((BK149+BK151)/BK153)*(BK150+BK151)/BK153)</f>
         <v>4.6106433060739158E-4</v>
       </c>
@@ -48347,23 +49066,23 @@
         <v>551</v>
       </c>
       <c r="BP158">
-        <f t="shared" ref="BP158:BT158" si="3">SUM(BP155:BP157)</f>
+        <f t="shared" ref="BP158:BT158" si="6">SUM(BP155:BP157)</f>
         <v>55</v>
       </c>
       <c r="BQ158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BR158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BS158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>553</v>
       </c>
       <c r="BT158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>609</v>
       </c>
       <c r="BU158">
@@ -50877,7 +51596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="43:58" x14ac:dyDescent="0.25">
+    <row r="225" spans="43:80" x14ac:dyDescent="0.25">
       <c r="AQ225" t="s">
         <v>1225</v>
       </c>
@@ -50927,7 +51646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="43:58" x14ac:dyDescent="0.25">
+    <row r="226" spans="43:80" x14ac:dyDescent="0.25">
       <c r="AQ226" t="s">
         <v>1227</v>
       </c>
@@ -50977,7 +51696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="43:58" x14ac:dyDescent="0.25">
+    <row r="227" spans="43:80" x14ac:dyDescent="0.25">
       <c r="AQ227" t="s">
         <v>1228</v>
       </c>
@@ -51027,7 +51746,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="43:59" x14ac:dyDescent="0.25">
+    <row r="237" spans="43:80" x14ac:dyDescent="0.25">
+      <c r="BS237" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="BT237" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BU237" s="5" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="238" spans="43:80" x14ac:dyDescent="0.25">
+      <c r="BR238" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BS238" s="10">
+        <v>38</v>
+      </c>
+      <c r="BT238" s="10">
+        <v>75</v>
+      </c>
+      <c r="BU238">
+        <v>80</v>
+      </c>
+      <c r="BV238">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="239" spans="43:80" x14ac:dyDescent="0.25">
+      <c r="BR239" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="BS239" s="10">
+        <v>18</v>
+      </c>
+      <c r="BT239" s="10">
+        <v>38</v>
+      </c>
+      <c r="BU239">
+        <v>1</v>
+      </c>
+      <c r="BV239">
+        <v>57</v>
+      </c>
+      <c r="CA239" s="10">
+        <v>38</v>
+      </c>
+      <c r="CB239" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="240" spans="43:80" x14ac:dyDescent="0.25">
+      <c r="BR240" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="BS240" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT240" s="10">
+        <v>18</v>
+      </c>
+      <c r="BU240">
+        <v>4</v>
+      </c>
+      <c r="BV240">
+        <v>22</v>
+      </c>
+      <c r="CA240" s="10">
+        <v>18</v>
+      </c>
+      <c r="CB240" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="241" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ241" t="s">
         <v>1174</v>
       </c>
@@ -51079,8 +51872,29 @@
       <c r="BG241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="BR241" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BS241" s="10">
+        <v>19</v>
+      </c>
+      <c r="BT241" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU241">
+        <v>52</v>
+      </c>
+      <c r="BV241">
+        <v>71</v>
+      </c>
+      <c r="CA241" s="10">
+        <v>0</v>
+      </c>
+      <c r="CB241" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="242" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ242" t="s">
         <v>1176</v>
       </c>
@@ -51132,8 +51946,29 @@
       <c r="BG242">
         <v>9.2592593000000001E-2</v>
       </c>
-    </row>
-    <row r="243" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="BR242" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="BS242" s="10">
+        <v>57</v>
+      </c>
+      <c r="BT242" s="10">
+        <v>19</v>
+      </c>
+      <c r="BU242">
+        <v>132</v>
+      </c>
+      <c r="BV242">
+        <v>14</v>
+      </c>
+      <c r="CA242" s="10">
+        <v>19</v>
+      </c>
+      <c r="CB242" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="243" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ243" t="s">
         <v>1179</v>
       </c>
@@ -51185,8 +52020,30 @@
       <c r="BG243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="BR243" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="BS243" s="10">
+        <v>75</v>
+      </c>
+      <c r="BT243" s="10">
+        <v>57</v>
+      </c>
+      <c r="BU243">
+        <v>137</v>
+      </c>
+      <c r="BV243">
+        <v>16</v>
+      </c>
+      <c r="CA243" s="7">
+        <f>SUM(CA242,CA239)</f>
+        <v>57</v>
+      </c>
+      <c r="CB243" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="244" spans="43:87" ht="16.5" x14ac:dyDescent="0.25">
       <c r="AQ244" t="s">
         <v>1181</v>
       </c>
@@ -51238,8 +52095,36 @@
       <c r="BG244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="BR244" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="BS244">
+        <v>76</v>
+      </c>
+      <c r="BT244">
+        <v>75</v>
+      </c>
+      <c r="BU244" s="5">
+        <v>0.96350364963503654</v>
+      </c>
+      <c r="BV244" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="CA244" s="7">
+        <f>SUM(CA239:CA243)</f>
+        <v>132</v>
+      </c>
+      <c r="CB244" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CH244">
+        <v>80</v>
+      </c>
+      <c r="CI244" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="245" spans="43:87" ht="16.5" x14ac:dyDescent="0.25">
       <c r="AQ245" t="s">
         <v>1183</v>
       </c>
@@ -51291,8 +52176,36 @@
       <c r="BG245" s="1">
         <v>4.8100000000000003E-16</v>
       </c>
-    </row>
-    <row r="246" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="BR245" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="BS245" s="5">
+        <v>0.16247704315886136</v>
+      </c>
+      <c r="BT245" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="BU245" s="5">
+        <v>0.36251265384410469</v>
+      </c>
+      <c r="BV245">
+        <v>0.5</v>
+      </c>
+      <c r="CA245" s="8">
+        <f>CA243/CA244</f>
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="CB245" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CH245">
+        <v>1</v>
+      </c>
+      <c r="CI245" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="246" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ246" t="s">
         <v>1185</v>
       </c>
@@ -51344,8 +52257,36 @@
       <c r="BG246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="BR246" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="BS246" s="5">
+        <v>0.51682176091624898</v>
+      </c>
+      <c r="BT246" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="BU246" s="5">
+        <v>0.92386351005890854</v>
+      </c>
+      <c r="BV246">
+        <v>0.75</v>
+      </c>
+      <c r="CA246" s="8">
+        <f>(((CA239+CA240)/CA244)*((CA241+CA239)/CA244))</f>
+        <v>0.12213039485766759</v>
+      </c>
+      <c r="CB246" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CH246">
+        <v>4</v>
+      </c>
+      <c r="CI246" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="247" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ247" t="s">
         <v>1186</v>
       </c>
@@ -51397,8 +52338,21 @@
       <c r="BG247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="CA247" s="8">
+        <f>(((CA240+CA242)/CA244)*(CA241+CA242)/CA244)</f>
+        <v>4.0346648301193749E-2</v>
+      </c>
+      <c r="CB247" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CH247">
+        <v>52</v>
+      </c>
+      <c r="CI247" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="248" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ248" t="s">
         <v>1187</v>
       </c>
@@ -51450,8 +52404,21 @@
       <c r="BG248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="CA248">
+        <f>SUM(CA246:CA247)</f>
+        <v>0.16247704315886136</v>
+      </c>
+      <c r="CB248" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CH248">
+        <v>132</v>
+      </c>
+      <c r="CI248" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="249" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ249" t="s">
         <v>1188</v>
       </c>
@@ -51503,8 +52470,21 @@
       <c r="BG249" s="1">
         <v>-1.3299999999999999E-15</v>
       </c>
-    </row>
-    <row r="250" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="CA249">
+        <f>CA245-CA248</f>
+        <v>0.26934113865932047</v>
+      </c>
+      <c r="CB249" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CH249">
+        <v>137</v>
+      </c>
+      <c r="CI249" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="250" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ250" t="s">
         <v>1189</v>
       </c>
@@ -51556,8 +52536,21 @@
       <c r="BG250" s="1">
         <v>-1.3299999999999999E-15</v>
       </c>
-    </row>
-    <row r="251" spans="43:59" x14ac:dyDescent="0.25">
+      <c r="CA250">
+        <f>1-CA248</f>
+        <v>0.83752295684113864</v>
+      </c>
+      <c r="CB250" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CH250">
+        <v>0.96350364963503654</v>
+      </c>
+      <c r="CI250" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="251" spans="43:87" x14ac:dyDescent="0.25">
       <c r="AQ251" t="s">
         <v>1191</v>
       </c>
@@ -51608,6 +52601,59 @@
       </c>
       <c r="BG251">
         <v>0</v>
+      </c>
+      <c r="CA251">
+        <f>CA249/CA250</f>
+        <v>0.32159254437058865</v>
+      </c>
+      <c r="CB251" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CH251">
+        <v>0.36251265384410469</v>
+      </c>
+      <c r="CI251" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="252" spans="43:87" x14ac:dyDescent="0.25">
+      <c r="CH252">
+        <v>0.15813309180030904</v>
+      </c>
+      <c r="CI252" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="253" spans="43:87" x14ac:dyDescent="0.25">
+      <c r="CH253">
+        <v>0.52064574564441379</v>
+      </c>
+      <c r="CI253" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="254" spans="43:87" x14ac:dyDescent="0.25">
+      <c r="CH254">
+        <v>0.44285790399062275</v>
+      </c>
+      <c r="CI254" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="255" spans="43:87" x14ac:dyDescent="0.25">
+      <c r="CH255">
+        <v>0.47935425435558621</v>
+      </c>
+      <c r="CI255" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="256" spans="43:87" x14ac:dyDescent="0.25">
+      <c r="CH256">
+        <v>0.92386351005890854</v>
+      </c>
+      <c r="CI256" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="271" spans="48:59" x14ac:dyDescent="0.25">
@@ -51686,7 +52732,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="273" spans="47:62" x14ac:dyDescent="0.25">
+    <row r="273" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AW273" t="s">
         <v>1270</v>
       </c>
@@ -51720,11 +52766,8 @@
       <c r="BG273" t="s">
         <v>1274</v>
       </c>
-      <c r="BJ273" s="3" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="274" spans="47:62" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AV274" t="s">
         <v>1066</v>
       </c>
@@ -51761,11 +52804,8 @@
       <c r="BG274">
         <v>35</v>
       </c>
-      <c r="BJ274" s="3" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="275" spans="47:62" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AU275" s="3" t="s">
         <v>1107</v>
       </c>
@@ -51805,11 +52845,8 @@
       <c r="BG275">
         <v>34</v>
       </c>
-      <c r="BJ275" s="3" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="276" spans="47:62" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AU276" s="3" t="s">
         <v>1253</v>
       </c>
@@ -51849,11 +52886,8 @@
       <c r="BG276">
         <v>1</v>
       </c>
-      <c r="BJ276" s="3" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="277" spans="47:62" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AU277" s="3" t="s">
         <v>1254</v>
       </c>
@@ -51893,11 +52927,8 @@
       <c r="BG277">
         <v>0</v>
       </c>
-      <c r="BJ277" s="3" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="278" spans="47:62" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AU278" s="3" t="s">
         <v>1255</v>
       </c>
@@ -51937,11 +52968,8 @@
       <c r="BG278">
         <v>0</v>
       </c>
-      <c r="BJ278" s="3" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="279" spans="47:62" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AU279" s="3" t="s">
         <v>1111</v>
       </c>
@@ -51981,11 +53009,8 @@
       <c r="BG279">
         <v>34</v>
       </c>
-      <c r="BJ279" s="3" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="280" spans="47:62" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AU280" s="3" t="s">
         <v>1112</v>
       </c>
@@ -52025,11 +53050,8 @@
       <c r="BG280">
         <v>35</v>
       </c>
-      <c r="BJ280" s="3" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="281" spans="47:62" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="47:59" ht="16.5" x14ac:dyDescent="0.25">
       <c r="AU281" s="3" t="s">
         <v>1256</v>
       </c>
@@ -52069,11 +53091,8 @@
       <c r="BG281" s="5">
         <v>0.97142857140000005</v>
       </c>
-      <c r="BJ281" s="4" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="282" spans="47:62" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="47:59" ht="16.5" x14ac:dyDescent="0.25">
       <c r="AU282" s="3" t="s">
         <v>1257</v>
       </c>
@@ -52114,7 +53133,7 @@
         <v>0.97142857100000002</v>
       </c>
     </row>
-    <row r="283" spans="47:62" x14ac:dyDescent="0.25">
+    <row r="283" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AU283" s="4" t="s">
         <v>1258</v>
       </c>
@@ -52155,54 +53174,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="47:62" x14ac:dyDescent="0.25">
+    <row r="285" spans="47:59" x14ac:dyDescent="0.25">
       <c r="BA285" s="1"/>
       <c r="BE285" s="1"/>
       <c r="BF285" s="1"/>
     </row>
-    <row r="286" spans="47:62" x14ac:dyDescent="0.25">
+    <row r="286" spans="47:59" x14ac:dyDescent="0.25">
       <c r="AW286">
         <f>AW281/100</f>
         <v>5.4285714289999997E-3</v>
       </c>
       <c r="AX286">
-        <f t="shared" ref="AX286:BG286" si="4">AX281/100</f>
+        <f t="shared" ref="AX286:BG286" si="7">AX281/100</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AY286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.0588235289999997E-3</v>
       </c>
       <c r="AZ286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.6470588239999993E-3</v>
       </c>
       <c r="BA286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.6923076919999996E-3</v>
       </c>
       <c r="BB286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.0769230769999981E-3</v>
       </c>
       <c r="BC286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.7500000000000008E-3</v>
       </c>
       <c r="BD286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.8235294120000002E-3</v>
       </c>
       <c r="BE286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.166666666999999E-3</v>
       </c>
       <c r="BF286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.166666666999999E-3</v>
       </c>
       <c r="BG286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.7142857140000011E-3</v>
       </c>
     </row>
@@ -52856,10 +53875,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AX288:BN298">
-    <sortCondition ref="AY288:AY298"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AX102:BB129">
+    <sortCondition ref="AX102:AX129"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="BE115:BE117"/>
+    <mergeCell ref="BI115:BI117"/>
     <mergeCell ref="AE8:AE9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="X8:X9"/>
@@ -52876,8 +53897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF81E43-D81D-4593-854C-6854848DC93E}">
   <dimension ref="A1:AK137"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="Y135" sqref="Y135:Y136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62575,10 +63596,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4345929F-0058-4121-AE1F-0B980AAB02C9}">
-  <dimension ref="A1:AI157"/>
+  <dimension ref="A1:BE231"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E74" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M145" sqref="M145:N157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71013,18 +72034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J145">
-        <v>1</v>
-      </c>
-      <c r="K145">
-        <f>COUNTIF(K2:K138,1)</f>
-        <v>81</v>
-      </c>
-      <c r="L145">
-        <f>COUNTIF(L2:L138,1)</f>
-        <v>84</v>
-      </c>
+    <row r="145" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M145">
         <f>COUNTIF(M1:M138,"A")</f>
         <v>80</v>
@@ -71033,18 +72043,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="146" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <f>COUNTIF(K2:K138,0)</f>
-        <v>56</v>
-      </c>
-      <c r="L146">
-        <f>COUNTIF(L2:L138,0)</f>
-        <v>53</v>
-      </c>
+    <row r="146" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M146">
         <f>COUNTIF(M1:M138,"B")</f>
         <v>1</v>
@@ -71053,7 +72052,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="147" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M147">
         <f>COUNTIF(M1:M138,"C")</f>
         <v>4</v>
@@ -71062,7 +72061,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="148" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M148">
         <f>COUNTIF(M1:M138,"D")</f>
         <v>52</v>
@@ -71071,7 +72070,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="149" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M149">
         <f>SUM(M145,M148)</f>
         <v>132</v>
@@ -71080,7 +72079,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="150" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M150">
         <f>SUM(M145:M148)</f>
         <v>137</v>
@@ -71089,7 +72088,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="151" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M151">
         <f>M149/M150</f>
         <v>0.96350364963503654</v>
@@ -71098,7 +72097,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="152" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M152">
         <f>(((M145+M146)/M150)*((M147+M145)/M150))</f>
         <v>0.36251265384410469</v>
@@ -71107,7 +72106,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="153" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M153">
         <f>(((M146+M148)/M150)*(M147+M148)/M150)</f>
         <v>0.15813309180030904</v>
@@ -71116,7 +72115,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="154" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M154">
         <f>SUM(M152:M153)</f>
         <v>0.52064574564441379</v>
@@ -71125,7 +72124,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="155" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M155">
         <f>M151-M154</f>
         <v>0.44285790399062275</v>
@@ -71134,7 +72133,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="156" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M156">
         <f>1-M154</f>
         <v>0.47935425435558621</v>
@@ -71143,12 +72142,4618 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="157" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M157">
         <f>M155/M156</f>
         <v>0.92386351005890854</v>
       </c>
       <c r="N157" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="165" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="AB165" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="166" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="T166" s="6"/>
+      <c r="U166" t="s">
+        <v>14</v>
+      </c>
+      <c r="V166" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN166" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO166" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP166" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ166" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR166" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS166" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT166" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU166" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV166" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW166" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX166" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ166" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA166" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB166" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC166" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD166" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE166" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="P167" t="s">
+        <v>1103</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167" t="str">
+        <f t="shared" ref="W167:W218" si="5">IF(AND(U167=0,V167=0),"D",IF(AND(U167=1,V167=1),"A",IF(AND(U167=1,V167=0),"B",IF(AND(U167=0,V167=1),"C"))))</f>
+        <v>D</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI167">
+        <v>3</v>
+      </c>
+      <c r="AJ167">
+        <v>6</v>
+      </c>
+      <c r="AK167">
+        <v>3</v>
+      </c>
+      <c r="AN167">
+        <v>1</v>
+      </c>
+      <c r="AO167">
+        <v>1</v>
+      </c>
+      <c r="AP167">
+        <v>1</v>
+      </c>
+      <c r="AU167">
+        <v>0</v>
+      </c>
+      <c r="AV167">
+        <v>1</v>
+      </c>
+      <c r="AW167">
+        <v>1</v>
+      </c>
+      <c r="AX167">
+        <v>1</v>
+      </c>
+      <c r="AY167">
+        <v>1</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>1</v>
+      </c>
+      <c r="BB167">
+        <v>1</v>
+      </c>
+      <c r="BC167">
+        <v>1</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="K168" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L168" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P168" t="s">
+        <v>1281</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>611</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>824</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>825</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI168">
+        <v>2</v>
+      </c>
+      <c r="AJ168">
+        <v>1</v>
+      </c>
+      <c r="AK168">
+        <v>0.5</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
+        <v>1</v>
+      </c>
+      <c r="AQ168">
+        <v>0</v>
+      </c>
+      <c r="AR168">
+        <v>1</v>
+      </c>
+      <c r="AS168">
+        <v>1</v>
+      </c>
+      <c r="AT168">
+        <v>1</v>
+      </c>
+      <c r="AU168">
+        <v>0</v>
+      </c>
+      <c r="AV168">
+        <v>1</v>
+      </c>
+      <c r="AW168">
+        <v>0</v>
+      </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
+      <c r="AY168">
+        <v>1</v>
+      </c>
+      <c r="AZ168">
+        <v>0</v>
+      </c>
+      <c r="BA168">
+        <v>1</v>
+      </c>
+      <c r="BB168">
+        <v>1</v>
+      </c>
+      <c r="BC168">
+        <v>1</v>
+      </c>
+      <c r="BD168">
+        <v>1</v>
+      </c>
+      <c r="BE168">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <f>COUNTIF(K2:K138,1)</f>
+        <v>81</v>
+      </c>
+      <c r="L169">
+        <f>COUNTIF(L2:L138,1)</f>
+        <v>84</v>
+      </c>
+      <c r="P169" t="s">
+        <v>1282</v>
+      </c>
+      <c r="U169">
+        <v>1</v>
+      </c>
+      <c r="V169">
+        <v>1</v>
+      </c>
+      <c r="W169" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>622</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>816</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>817</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH169" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI169">
+        <v>2</v>
+      </c>
+      <c r="AJ169">
+        <v>7</v>
+      </c>
+      <c r="AK169">
+        <v>3.5</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
+        <v>1</v>
+      </c>
+      <c r="AQ169">
+        <v>1</v>
+      </c>
+      <c r="AR169">
+        <v>1</v>
+      </c>
+      <c r="AS169">
+        <v>1</v>
+      </c>
+      <c r="AT169">
+        <v>1</v>
+      </c>
+      <c r="AU169">
+        <v>0</v>
+      </c>
+      <c r="AV169">
+        <v>1</v>
+      </c>
+      <c r="AW169">
+        <v>0</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>1</v>
+      </c>
+      <c r="AZ169">
+        <v>1</v>
+      </c>
+      <c r="BA169">
+        <v>1</v>
+      </c>
+      <c r="BB169">
+        <v>1</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="170" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <f>COUNTIF(K2:K138,0)</f>
+        <v>56</v>
+      </c>
+      <c r="L170">
+        <f>COUNTIF(L2:L138,0)</f>
+        <v>53</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>820</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI170">
+        <v>2</v>
+      </c>
+      <c r="AJ170">
+        <v>11</v>
+      </c>
+      <c r="AK170">
+        <v>5.5</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
+        <v>1</v>
+      </c>
+      <c r="AQ170">
+        <v>0</v>
+      </c>
+      <c r="AR170">
+        <v>1</v>
+      </c>
+      <c r="AS170">
+        <v>1</v>
+      </c>
+      <c r="AT170">
+        <v>1</v>
+      </c>
+      <c r="AU170">
+        <v>0</v>
+      </c>
+      <c r="AV170">
+        <v>1</v>
+      </c>
+      <c r="AW170">
+        <v>0</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>1</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>1</v>
+      </c>
+      <c r="BB170">
+        <v>1</v>
+      </c>
+      <c r="BC170">
+        <v>1</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="U171">
+        <v>1</v>
+      </c>
+      <c r="V171">
+        <v>1</v>
+      </c>
+      <c r="W171" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>795</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>796</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI171">
+        <v>2</v>
+      </c>
+      <c r="AJ171">
+        <v>17</v>
+      </c>
+      <c r="AK171">
+        <v>8.5</v>
+      </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
+      <c r="AM171">
+        <v>1</v>
+      </c>
+      <c r="AQ171">
+        <v>1</v>
+      </c>
+      <c r="AR171">
+        <v>1</v>
+      </c>
+      <c r="AS171">
+        <v>1</v>
+      </c>
+      <c r="AT171">
+        <v>1</v>
+      </c>
+      <c r="AU171">
+        <v>0</v>
+      </c>
+      <c r="AV171">
+        <v>1</v>
+      </c>
+      <c r="AW171">
+        <v>0</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>1</v>
+      </c>
+      <c r="AZ171">
+        <v>1</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>1</v>
+      </c>
+      <c r="BC171">
+        <v>1</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="U172">
+        <v>1</v>
+      </c>
+      <c r="V172">
+        <v>1</v>
+      </c>
+      <c r="W172" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI172">
+        <v>2</v>
+      </c>
+      <c r="AJ172">
+        <v>20</v>
+      </c>
+      <c r="AK172">
+        <v>10</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
+      <c r="AM172">
+        <v>1</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1</v>
+      </c>
+      <c r="AS172">
+        <v>1</v>
+      </c>
+      <c r="AT172">
+        <v>1</v>
+      </c>
+      <c r="AU172">
+        <v>0</v>
+      </c>
+      <c r="AV172">
+        <v>1</v>
+      </c>
+      <c r="AW172">
+        <v>1</v>
+      </c>
+      <c r="AX172">
+        <v>1</v>
+      </c>
+      <c r="AY172">
+        <v>1</v>
+      </c>
+      <c r="AZ172">
+        <v>1</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>1</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="U173">
+        <v>1</v>
+      </c>
+      <c r="V173">
+        <v>1</v>
+      </c>
+      <c r="W173" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>644</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>880</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI173">
+        <v>2</v>
+      </c>
+      <c r="AJ173">
+        <v>23</v>
+      </c>
+      <c r="AK173">
+        <v>11.5</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AM173">
+        <v>1</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>1</v>
+      </c>
+      <c r="AS173">
+        <v>1</v>
+      </c>
+      <c r="AT173">
+        <v>1</v>
+      </c>
+      <c r="AU173">
+        <v>0</v>
+      </c>
+      <c r="AV173">
+        <v>1</v>
+      </c>
+      <c r="AW173">
+        <v>0</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>1</v>
+      </c>
+      <c r="AZ173">
+        <v>1</v>
+      </c>
+      <c r="BA173">
+        <v>1</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>1</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="AB174" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>882</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>883</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI174">
+        <v>3</v>
+      </c>
+      <c r="AJ174">
+        <v>1</v>
+      </c>
+      <c r="AK174">
+        <v>0.5</v>
+      </c>
+      <c r="AN174">
+        <v>1</v>
+      </c>
+      <c r="AO174">
+        <v>1</v>
+      </c>
+      <c r="AP174">
+        <v>1</v>
+      </c>
+      <c r="AU174">
+        <v>1</v>
+      </c>
+      <c r="AV174">
+        <v>1</v>
+      </c>
+      <c r="AW174">
+        <v>1</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>1</v>
+      </c>
+      <c r="AZ174">
+        <v>1</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>1</v>
+      </c>
+      <c r="BC174">
+        <v>1</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="AB175" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>945</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>946</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI175">
+        <v>3</v>
+      </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
+      <c r="AK175">
+        <v>1</v>
+      </c>
+      <c r="AN175">
+        <v>1</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>1</v>
+      </c>
+      <c r="AU175">
+        <v>1</v>
+      </c>
+      <c r="AV175">
+        <v>1</v>
+      </c>
+      <c r="AW175">
+        <v>0</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>1</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <v>1</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="11:57" x14ac:dyDescent="0.25">
+      <c r="AB176" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI176">
+        <v>3</v>
+      </c>
+      <c r="AJ176">
+        <v>3</v>
+      </c>
+      <c r="AK176">
+        <v>1.5</v>
+      </c>
+      <c r="AN176">
+        <v>1</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>1</v>
+      </c>
+      <c r="AU176">
+        <v>1</v>
+      </c>
+      <c r="AV176">
+        <v>1</v>
+      </c>
+      <c r="AW176">
+        <v>0</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>1</v>
+      </c>
+      <c r="AZ176">
+        <v>1</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>1</v>
+      </c>
+      <c r="BC176">
+        <v>1</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB177" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>661</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI177">
+        <v>3</v>
+      </c>
+      <c r="AJ177">
+        <v>4</v>
+      </c>
+      <c r="AK177">
+        <v>2</v>
+      </c>
+      <c r="AN177">
+        <v>1</v>
+      </c>
+      <c r="AO177">
+        <v>1</v>
+      </c>
+      <c r="AP177">
+        <v>1</v>
+      </c>
+      <c r="AU177">
+        <v>1</v>
+      </c>
+      <c r="AV177">
+        <v>1</v>
+      </c>
+      <c r="AW177">
+        <v>0</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>1</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>1</v>
+      </c>
+      <c r="BC177">
+        <v>1</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB178" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>688</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI178">
+        <v>3</v>
+      </c>
+      <c r="AJ178">
+        <v>5</v>
+      </c>
+      <c r="AK178">
+        <v>2.5</v>
+      </c>
+      <c r="AN178">
+        <v>1</v>
+      </c>
+      <c r="AO178">
+        <v>1</v>
+      </c>
+      <c r="AP178">
+        <v>1</v>
+      </c>
+      <c r="AU178">
+        <v>1</v>
+      </c>
+      <c r="AV178">
+        <v>1</v>
+      </c>
+      <c r="AW178">
+        <v>1</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>1</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>1</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
+        <v>1</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB179" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>988</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI179">
+        <v>3</v>
+      </c>
+      <c r="AJ179">
+        <v>6</v>
+      </c>
+      <c r="AK179">
+        <v>3</v>
+      </c>
+      <c r="AN179">
+        <v>1</v>
+      </c>
+      <c r="AO179">
+        <v>1</v>
+      </c>
+      <c r="AP179">
+        <v>1</v>
+      </c>
+      <c r="AU179">
+        <v>1</v>
+      </c>
+      <c r="AV179">
+        <v>1</v>
+      </c>
+      <c r="AW179">
+        <v>1</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>1</v>
+      </c>
+      <c r="AZ179">
+        <v>1</v>
+      </c>
+      <c r="BA179">
+        <v>1</v>
+      </c>
+      <c r="BB179">
+        <v>1</v>
+      </c>
+      <c r="BC179">
+        <v>1</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB180" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>697</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>698</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI180">
+        <v>3</v>
+      </c>
+      <c r="AJ180">
+        <v>7</v>
+      </c>
+      <c r="AK180">
+        <v>3.5</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
+        <v>1</v>
+      </c>
+      <c r="AP180">
+        <v>1</v>
+      </c>
+      <c r="AU180">
+        <v>1</v>
+      </c>
+      <c r="AV180">
+        <v>1</v>
+      </c>
+      <c r="AW180">
+        <v>1</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>1</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>1</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
+        <v>1</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB181" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>892</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>893</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI181">
+        <v>3</v>
+      </c>
+      <c r="AJ181">
+        <v>8</v>
+      </c>
+      <c r="AK181">
+        <v>4</v>
+      </c>
+      <c r="AN181">
+        <v>1</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>1</v>
+      </c>
+      <c r="AU181">
+        <v>1</v>
+      </c>
+      <c r="AV181">
+        <v>1</v>
+      </c>
+      <c r="AW181">
+        <v>0</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>1</v>
+      </c>
+      <c r="AZ181">
+        <v>1</v>
+      </c>
+      <c r="BA181">
+        <v>1</v>
+      </c>
+      <c r="BB181">
+        <v>1</v>
+      </c>
+      <c r="BC181">
+        <v>1</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB182" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI182">
+        <v>3</v>
+      </c>
+      <c r="AJ182">
+        <v>9</v>
+      </c>
+      <c r="AK182">
+        <v>4.5</v>
+      </c>
+      <c r="AN182">
+        <v>1</v>
+      </c>
+      <c r="AO182">
+        <v>1</v>
+      </c>
+      <c r="AP182">
+        <v>1</v>
+      </c>
+      <c r="AU182">
+        <v>1</v>
+      </c>
+      <c r="AV182">
+        <v>1</v>
+      </c>
+      <c r="AW182">
+        <v>1</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>1</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>1</v>
+      </c>
+      <c r="BB182">
+        <v>1</v>
+      </c>
+      <c r="BC182">
+        <v>1</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB183" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>836</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI183">
+        <v>3</v>
+      </c>
+      <c r="AJ183">
+        <v>10</v>
+      </c>
+      <c r="AK183">
+        <v>5</v>
+      </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
+      <c r="AO183">
+        <v>1</v>
+      </c>
+      <c r="AP183">
+        <v>1</v>
+      </c>
+      <c r="AU183">
+        <v>1</v>
+      </c>
+      <c r="AV183">
+        <v>1</v>
+      </c>
+      <c r="AW183">
+        <v>0</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>1</v>
+      </c>
+      <c r="AZ183">
+        <v>1</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>1</v>
+      </c>
+      <c r="BC183">
+        <v>1</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB184" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>975</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>976</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI184">
+        <v>3</v>
+      </c>
+      <c r="AJ184">
+        <v>11</v>
+      </c>
+      <c r="AK184">
+        <v>5.5</v>
+      </c>
+      <c r="AN184">
+        <v>1</v>
+      </c>
+      <c r="AO184">
+        <v>1</v>
+      </c>
+      <c r="AP184">
+        <v>1</v>
+      </c>
+      <c r="AU184">
+        <v>1</v>
+      </c>
+      <c r="AV184">
+        <v>1</v>
+      </c>
+      <c r="AW184">
+        <v>1</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>1</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>1</v>
+      </c>
+      <c r="BB184">
+        <v>1</v>
+      </c>
+      <c r="BC184">
+        <v>1</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB185" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>763</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI185">
+        <v>3</v>
+      </c>
+      <c r="AJ185">
+        <v>12</v>
+      </c>
+      <c r="AK185">
+        <v>6</v>
+      </c>
+      <c r="AN185">
+        <v>1</v>
+      </c>
+      <c r="AO185">
+        <v>1</v>
+      </c>
+      <c r="AP185">
+        <v>1</v>
+      </c>
+      <c r="AU185">
+        <v>1</v>
+      </c>
+      <c r="AV185">
+        <v>1</v>
+      </c>
+      <c r="AW185">
+        <v>1</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>1</v>
+      </c>
+      <c r="AZ185">
+        <v>1</v>
+      </c>
+      <c r="BA185">
+        <v>1</v>
+      </c>
+      <c r="BB185">
+        <v>1</v>
+      </c>
+      <c r="BC185">
+        <v>1</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB186" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>857</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI186">
+        <v>3</v>
+      </c>
+      <c r="AJ186">
+        <v>13</v>
+      </c>
+      <c r="AK186">
+        <v>6.5</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+      <c r="AO186">
+        <v>1</v>
+      </c>
+      <c r="AP186">
+        <v>1</v>
+      </c>
+      <c r="AU186">
+        <v>1</v>
+      </c>
+      <c r="AV186">
+        <v>1</v>
+      </c>
+      <c r="AW186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>1</v>
+      </c>
+      <c r="AZ186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>1</v>
+      </c>
+      <c r="BB186">
+        <v>1</v>
+      </c>
+      <c r="BC186">
+        <v>1</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB187" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI187">
+        <v>3</v>
+      </c>
+      <c r="AJ187">
+        <v>14</v>
+      </c>
+      <c r="AK187">
+        <v>7</v>
+      </c>
+      <c r="AN187">
+        <v>1</v>
+      </c>
+      <c r="AO187">
+        <v>1</v>
+      </c>
+      <c r="AP187">
+        <v>1</v>
+      </c>
+      <c r="AU187">
+        <v>1</v>
+      </c>
+      <c r="AV187">
+        <v>1</v>
+      </c>
+      <c r="AW187">
+        <v>1</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>1</v>
+      </c>
+      <c r="AZ187">
+        <v>1</v>
+      </c>
+      <c r="BA187">
+        <v>1</v>
+      </c>
+      <c r="BB187">
+        <v>1</v>
+      </c>
+      <c r="BC187">
+        <v>1</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB188" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI188">
+        <v>3</v>
+      </c>
+      <c r="AJ188">
+        <v>15</v>
+      </c>
+      <c r="AK188">
+        <v>7.5</v>
+      </c>
+      <c r="AN188">
+        <v>1</v>
+      </c>
+      <c r="AO188">
+        <v>1</v>
+      </c>
+      <c r="AP188">
+        <v>1</v>
+      </c>
+      <c r="AU188">
+        <v>1</v>
+      </c>
+      <c r="AV188">
+        <v>1</v>
+      </c>
+      <c r="AW188">
+        <v>0</v>
+      </c>
+      <c r="AX188">
+        <v>0</v>
+      </c>
+      <c r="AY188">
+        <v>1</v>
+      </c>
+      <c r="AZ188">
+        <v>1</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>1</v>
+      </c>
+      <c r="BC188">
+        <v>1</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB189" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI189">
+        <v>3</v>
+      </c>
+      <c r="AJ189">
+        <v>16</v>
+      </c>
+      <c r="AK189">
+        <v>8</v>
+      </c>
+      <c r="AN189">
+        <v>1</v>
+      </c>
+      <c r="AO189">
+        <v>1</v>
+      </c>
+      <c r="AP189">
+        <v>1</v>
+      </c>
+      <c r="AU189">
+        <v>1</v>
+      </c>
+      <c r="AV189">
+        <v>1</v>
+      </c>
+      <c r="AW189">
+        <v>1</v>
+      </c>
+      <c r="AX189">
+        <v>1</v>
+      </c>
+      <c r="AY189">
+        <v>1</v>
+      </c>
+      <c r="AZ189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>1</v>
+      </c>
+      <c r="BB189">
+        <v>1</v>
+      </c>
+      <c r="BC189">
+        <v>1</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB190" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>999</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI190">
+        <v>3</v>
+      </c>
+      <c r="AJ190">
+        <v>17</v>
+      </c>
+      <c r="AK190">
+        <v>8.5</v>
+      </c>
+      <c r="AN190">
+        <v>1</v>
+      </c>
+      <c r="AO190">
+        <v>1</v>
+      </c>
+      <c r="AP190">
+        <v>1</v>
+      </c>
+      <c r="AU190">
+        <v>1</v>
+      </c>
+      <c r="AV190">
+        <v>1</v>
+      </c>
+      <c r="AW190">
+        <v>1</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>1</v>
+      </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>1</v>
+      </c>
+      <c r="BB190">
+        <v>1</v>
+      </c>
+      <c r="BC190">
+        <v>1</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB191" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>775</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI191">
+        <v>3</v>
+      </c>
+      <c r="AJ191">
+        <v>18</v>
+      </c>
+      <c r="AK191">
+        <v>9</v>
+      </c>
+      <c r="AN191">
+        <v>1</v>
+      </c>
+      <c r="AO191">
+        <v>1</v>
+      </c>
+      <c r="AP191">
+        <v>1</v>
+      </c>
+      <c r="AU191">
+        <v>1</v>
+      </c>
+      <c r="AV191">
+        <v>1</v>
+      </c>
+      <c r="AW191">
+        <v>1</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>1</v>
+      </c>
+      <c r="AZ191">
+        <v>1</v>
+      </c>
+      <c r="BA191">
+        <v>0</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
+      <c r="BC191">
+        <v>1</v>
+      </c>
+      <c r="BD191">
+        <v>0</v>
+      </c>
+      <c r="BE191">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="28:57" x14ac:dyDescent="0.25">
+      <c r="AB192" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>797</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>798</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI192">
+        <v>3</v>
+      </c>
+      <c r="AJ192">
+        <v>19</v>
+      </c>
+      <c r="AK192">
+        <v>9.5</v>
+      </c>
+      <c r="AN192">
+        <v>1</v>
+      </c>
+      <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
+        <v>1</v>
+      </c>
+      <c r="AU192">
+        <v>1</v>
+      </c>
+      <c r="AV192">
+        <v>1</v>
+      </c>
+      <c r="AW192">
+        <v>1</v>
+      </c>
+      <c r="AX192">
+        <v>1</v>
+      </c>
+      <c r="AY192">
+        <v>1</v>
+      </c>
+      <c r="AZ192">
+        <v>1</v>
+      </c>
+      <c r="BA192">
+        <v>1</v>
+      </c>
+      <c r="BB192">
+        <v>1</v>
+      </c>
+      <c r="BC192">
+        <v>1</v>
+      </c>
+      <c r="BD192">
+        <v>1</v>
+      </c>
+      <c r="BE192">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB193" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>962</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>963</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG193" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI193">
+        <v>3</v>
+      </c>
+      <c r="AJ193">
+        <v>20</v>
+      </c>
+      <c r="AK193">
+        <v>10</v>
+      </c>
+      <c r="AN193">
+        <v>1</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>1</v>
+      </c>
+      <c r="AU193">
+        <v>1</v>
+      </c>
+      <c r="AV193">
+        <v>1</v>
+      </c>
+      <c r="AW193">
+        <v>1</v>
+      </c>
+      <c r="AX193">
+        <v>1</v>
+      </c>
+      <c r="AY193">
+        <v>1</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>1</v>
+      </c>
+      <c r="BB193">
+        <v>1</v>
+      </c>
+      <c r="BC193">
+        <v>1</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB194" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI194">
+        <v>3</v>
+      </c>
+      <c r="AJ194">
+        <v>21</v>
+      </c>
+      <c r="AK194">
+        <v>10.5</v>
+      </c>
+      <c r="AN194">
+        <v>1</v>
+      </c>
+      <c r="AO194">
+        <v>1</v>
+      </c>
+      <c r="AP194">
+        <v>1</v>
+      </c>
+      <c r="AU194">
+        <v>1</v>
+      </c>
+      <c r="AV194">
+        <v>1</v>
+      </c>
+      <c r="AW194">
+        <v>1</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+      <c r="AY194">
+        <v>1</v>
+      </c>
+      <c r="AZ194">
+        <v>1</v>
+      </c>
+      <c r="BA194">
+        <v>1</v>
+      </c>
+      <c r="BB194">
+        <v>1</v>
+      </c>
+      <c r="BC194">
+        <v>1</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB195" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>972</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI195">
+        <v>3</v>
+      </c>
+      <c r="AJ195">
+        <v>22</v>
+      </c>
+      <c r="AK195">
+        <v>11</v>
+      </c>
+      <c r="AN195">
+        <v>1</v>
+      </c>
+      <c r="AO195">
+        <v>1</v>
+      </c>
+      <c r="AP195">
+        <v>1</v>
+      </c>
+      <c r="AU195">
+        <v>1</v>
+      </c>
+      <c r="AV195">
+        <v>1</v>
+      </c>
+      <c r="AW195">
+        <v>1</v>
+      </c>
+      <c r="AX195">
+        <v>1</v>
+      </c>
+      <c r="AY195">
+        <v>1</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>1</v>
+      </c>
+      <c r="BB195">
+        <v>1</v>
+      </c>
+      <c r="BC195">
+        <v>1</v>
+      </c>
+      <c r="BD195">
+        <v>1</v>
+      </c>
+      <c r="BE195">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB196" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>937</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>938</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI196">
+        <v>3</v>
+      </c>
+      <c r="AJ196">
+        <v>23</v>
+      </c>
+      <c r="AK196">
+        <v>11.5</v>
+      </c>
+      <c r="AN196">
+        <v>1</v>
+      </c>
+      <c r="AO196">
+        <v>0</v>
+      </c>
+      <c r="AP196">
+        <v>1</v>
+      </c>
+      <c r="AU196">
+        <v>1</v>
+      </c>
+      <c r="AV196">
+        <v>0</v>
+      </c>
+      <c r="AW196">
+        <v>1</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>1</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>1</v>
+      </c>
+      <c r="BB196">
+        <v>1</v>
+      </c>
+      <c r="BC196">
+        <v>1</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB197" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>949</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>950</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI197">
+        <v>3</v>
+      </c>
+      <c r="AJ197">
+        <v>24</v>
+      </c>
+      <c r="AK197">
+        <v>12</v>
+      </c>
+      <c r="AN197">
+        <v>1</v>
+      </c>
+      <c r="AO197">
+        <v>1</v>
+      </c>
+      <c r="AP197">
+        <v>1</v>
+      </c>
+      <c r="AU197">
+        <v>1</v>
+      </c>
+      <c r="AV197">
+        <v>1</v>
+      </c>
+      <c r="AW197">
+        <v>1</v>
+      </c>
+      <c r="AX197">
+        <v>1</v>
+      </c>
+      <c r="AY197">
+        <v>1</v>
+      </c>
+      <c r="AZ197">
+        <v>1</v>
+      </c>
+      <c r="BA197">
+        <v>1</v>
+      </c>
+      <c r="BB197">
+        <v>1</v>
+      </c>
+      <c r="BC197">
+        <v>1</v>
+      </c>
+      <c r="BD197">
+        <v>0</v>
+      </c>
+      <c r="BE197">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB198" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI198">
+        <v>3</v>
+      </c>
+      <c r="AJ198">
+        <v>25</v>
+      </c>
+      <c r="AK198">
+        <v>12.5</v>
+      </c>
+      <c r="AN198">
+        <v>1</v>
+      </c>
+      <c r="AO198">
+        <v>1</v>
+      </c>
+      <c r="AP198">
+        <v>1</v>
+      </c>
+      <c r="AU198">
+        <v>1</v>
+      </c>
+      <c r="AV198">
+        <v>1</v>
+      </c>
+      <c r="AW198">
+        <v>1</v>
+      </c>
+      <c r="AX198">
+        <v>1</v>
+      </c>
+      <c r="AY198">
+        <v>1</v>
+      </c>
+      <c r="AZ198">
+        <v>1</v>
+      </c>
+      <c r="BA198">
+        <v>1</v>
+      </c>
+      <c r="BB198">
+        <v>1</v>
+      </c>
+      <c r="BC198">
+        <v>1</v>
+      </c>
+      <c r="BD198">
+        <v>1</v>
+      </c>
+      <c r="BE198">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB199" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>818</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI199">
+        <v>3</v>
+      </c>
+      <c r="AJ199">
+        <v>26</v>
+      </c>
+      <c r="AK199">
+        <v>13</v>
+      </c>
+      <c r="AN199">
+        <v>1</v>
+      </c>
+      <c r="AO199">
+        <v>1</v>
+      </c>
+      <c r="AP199">
+        <v>1</v>
+      </c>
+      <c r="AU199">
+        <v>1</v>
+      </c>
+      <c r="AV199">
+        <v>1</v>
+      </c>
+      <c r="AW199">
+        <v>1</v>
+      </c>
+      <c r="AX199">
+        <v>1</v>
+      </c>
+      <c r="AY199">
+        <v>1</v>
+      </c>
+      <c r="AZ199">
+        <v>1</v>
+      </c>
+      <c r="BA199">
+        <v>1</v>
+      </c>
+      <c r="BB199">
+        <v>1</v>
+      </c>
+      <c r="BC199">
+        <v>1</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB200" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>979</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>980</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI200">
+        <v>3</v>
+      </c>
+      <c r="AJ200">
+        <v>27</v>
+      </c>
+      <c r="AK200">
+        <v>13.5</v>
+      </c>
+      <c r="AN200">
+        <v>1</v>
+      </c>
+      <c r="AO200">
+        <v>1</v>
+      </c>
+      <c r="AP200">
+        <v>1</v>
+      </c>
+      <c r="AU200">
+        <v>1</v>
+      </c>
+      <c r="AV200">
+        <v>1</v>
+      </c>
+      <c r="AW200">
+        <v>1</v>
+      </c>
+      <c r="AX200">
+        <v>1</v>
+      </c>
+      <c r="AY200">
+        <v>1</v>
+      </c>
+      <c r="AZ200">
+        <v>1</v>
+      </c>
+      <c r="BA200">
+        <v>1</v>
+      </c>
+      <c r="BB200">
+        <v>1</v>
+      </c>
+      <c r="BC200">
+        <v>1</v>
+      </c>
+      <c r="BD200">
+        <v>0</v>
+      </c>
+      <c r="BE200">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB201" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>890</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>891</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI201">
+        <v>3</v>
+      </c>
+      <c r="AJ201">
+        <v>28</v>
+      </c>
+      <c r="AK201">
+        <v>14</v>
+      </c>
+      <c r="AN201">
+        <v>1</v>
+      </c>
+      <c r="AO201">
+        <v>1</v>
+      </c>
+      <c r="AP201">
+        <v>1</v>
+      </c>
+      <c r="AU201">
+        <v>1</v>
+      </c>
+      <c r="AV201">
+        <v>1</v>
+      </c>
+      <c r="AW201">
+        <v>1</v>
+      </c>
+      <c r="AX201">
+        <v>1</v>
+      </c>
+      <c r="AY201">
+        <v>1</v>
+      </c>
+      <c r="AZ201">
+        <v>1</v>
+      </c>
+      <c r="BA201">
+        <v>1</v>
+      </c>
+      <c r="BB201">
+        <v>1</v>
+      </c>
+      <c r="BC201">
+        <v>1</v>
+      </c>
+      <c r="BD201">
+        <v>0</v>
+      </c>
+      <c r="BE201">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB202" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>723</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI202">
+        <v>3</v>
+      </c>
+      <c r="AJ202">
+        <v>29</v>
+      </c>
+      <c r="AK202">
+        <v>14.5</v>
+      </c>
+      <c r="AN202">
+        <v>1</v>
+      </c>
+      <c r="AO202">
+        <v>1</v>
+      </c>
+      <c r="AP202">
+        <v>1</v>
+      </c>
+      <c r="AU202">
+        <v>1</v>
+      </c>
+      <c r="AV202">
+        <v>1</v>
+      </c>
+      <c r="AW202">
+        <v>1</v>
+      </c>
+      <c r="AX202">
+        <v>1</v>
+      </c>
+      <c r="AY202">
+        <v>1</v>
+      </c>
+      <c r="AZ202">
+        <v>1</v>
+      </c>
+      <c r="BA202">
+        <v>1</v>
+      </c>
+      <c r="BB202">
+        <v>1</v>
+      </c>
+      <c r="BC202">
+        <v>1</v>
+      </c>
+      <c r="BD202">
+        <v>0</v>
+      </c>
+      <c r="BE202">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB203" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>919</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI203">
+        <v>3</v>
+      </c>
+      <c r="AJ203">
+        <v>30</v>
+      </c>
+      <c r="AK203">
+        <v>15</v>
+      </c>
+      <c r="AN203">
+        <v>1</v>
+      </c>
+      <c r="AO203">
+        <v>0</v>
+      </c>
+      <c r="AP203">
+        <v>1</v>
+      </c>
+      <c r="AU203">
+        <v>1</v>
+      </c>
+      <c r="AV203">
+        <v>1</v>
+      </c>
+      <c r="AW203">
+        <v>1</v>
+      </c>
+      <c r="AX203">
+        <v>1</v>
+      </c>
+      <c r="AY203">
+        <v>1</v>
+      </c>
+      <c r="AZ203">
+        <v>0</v>
+      </c>
+      <c r="BA203">
+        <v>1</v>
+      </c>
+      <c r="BB203">
+        <v>1</v>
+      </c>
+      <c r="BC203">
+        <v>1</v>
+      </c>
+      <c r="BD203">
+        <v>0</v>
+      </c>
+      <c r="BE203">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>977</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>978</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI204">
+        <v>4</v>
+      </c>
+      <c r="AJ204">
+        <v>1</v>
+      </c>
+      <c r="AK204">
+        <v>0.5</v>
+      </c>
+      <c r="AL204">
+        <v>1</v>
+      </c>
+      <c r="AM204">
+        <v>1</v>
+      </c>
+      <c r="AN204">
+        <v>1</v>
+      </c>
+      <c r="AO204">
+        <v>1</v>
+      </c>
+      <c r="AP204">
+        <v>1</v>
+      </c>
+      <c r="AQ204">
+        <v>0</v>
+      </c>
+      <c r="AR204">
+        <v>1</v>
+      </c>
+      <c r="AS204">
+        <v>1</v>
+      </c>
+      <c r="AT204">
+        <v>1</v>
+      </c>
+      <c r="AU204">
+        <v>1</v>
+      </c>
+      <c r="AV204">
+        <v>1</v>
+      </c>
+      <c r="AW204">
+        <v>1</v>
+      </c>
+      <c r="AX204">
+        <v>1</v>
+      </c>
+      <c r="AY204">
+        <v>1</v>
+      </c>
+      <c r="AZ204">
+        <v>0</v>
+      </c>
+      <c r="BA204">
+        <v>1</v>
+      </c>
+      <c r="BB204">
+        <v>1</v>
+      </c>
+      <c r="BC204">
+        <v>1</v>
+      </c>
+      <c r="BD204">
+        <v>0</v>
+      </c>
+      <c r="BE204">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U205">
+        <v>1</v>
+      </c>
+      <c r="V205">
+        <v>1</v>
+      </c>
+      <c r="W205" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI205">
+        <v>4</v>
+      </c>
+      <c r="AJ205">
+        <v>2</v>
+      </c>
+      <c r="AK205">
+        <v>1</v>
+      </c>
+      <c r="AL205">
+        <v>1</v>
+      </c>
+      <c r="AM205">
+        <v>1</v>
+      </c>
+      <c r="AN205">
+        <v>1</v>
+      </c>
+      <c r="AO205">
+        <v>1</v>
+      </c>
+      <c r="AP205">
+        <v>1</v>
+      </c>
+      <c r="AQ205">
+        <v>1</v>
+      </c>
+      <c r="AR205">
+        <v>1</v>
+      </c>
+      <c r="AS205">
+        <v>1</v>
+      </c>
+      <c r="AT205">
+        <v>1</v>
+      </c>
+      <c r="AU205">
+        <v>1</v>
+      </c>
+      <c r="AV205">
+        <v>1</v>
+      </c>
+      <c r="AW205">
+        <v>1</v>
+      </c>
+      <c r="AX205">
+        <v>1</v>
+      </c>
+      <c r="AY205">
+        <v>1</v>
+      </c>
+      <c r="AZ205">
+        <v>1</v>
+      </c>
+      <c r="BA205">
+        <v>1</v>
+      </c>
+      <c r="BB205">
+        <v>1</v>
+      </c>
+      <c r="BC205">
+        <v>1</v>
+      </c>
+      <c r="BD205">
+        <v>0</v>
+      </c>
+      <c r="BE205">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U206">
+        <v>1</v>
+      </c>
+      <c r="V206">
+        <v>1</v>
+      </c>
+      <c r="W206" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>729</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI206">
+        <v>4</v>
+      </c>
+      <c r="AJ206">
+        <v>3</v>
+      </c>
+      <c r="AK206">
+        <v>1.5</v>
+      </c>
+      <c r="AL206">
+        <v>1</v>
+      </c>
+      <c r="AM206">
+        <v>1</v>
+      </c>
+      <c r="AN206">
+        <v>1</v>
+      </c>
+      <c r="AO206">
+        <v>1</v>
+      </c>
+      <c r="AP206">
+        <v>1</v>
+      </c>
+      <c r="AQ206">
+        <v>1</v>
+      </c>
+      <c r="AR206">
+        <v>1</v>
+      </c>
+      <c r="AS206">
+        <v>1</v>
+      </c>
+      <c r="AT206">
+        <v>1</v>
+      </c>
+      <c r="AU206">
+        <v>1</v>
+      </c>
+      <c r="AV206">
+        <v>1</v>
+      </c>
+      <c r="AW206">
+        <v>1</v>
+      </c>
+      <c r="AX206">
+        <v>1</v>
+      </c>
+      <c r="AY206">
+        <v>0</v>
+      </c>
+      <c r="AZ206">
+        <v>1</v>
+      </c>
+      <c r="BA206">
+        <v>1</v>
+      </c>
+      <c r="BB206">
+        <v>1</v>
+      </c>
+      <c r="BC206">
+        <v>1</v>
+      </c>
+      <c r="BD206">
+        <v>0</v>
+      </c>
+      <c r="BE206">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>875</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>876</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI207">
+        <v>4</v>
+      </c>
+      <c r="AJ207">
+        <v>4</v>
+      </c>
+      <c r="AK207">
+        <v>2</v>
+      </c>
+      <c r="AL207">
+        <v>1</v>
+      </c>
+      <c r="AM207">
+        <v>1</v>
+      </c>
+      <c r="AN207">
+        <v>1</v>
+      </c>
+      <c r="AO207">
+        <v>1</v>
+      </c>
+      <c r="AP207">
+        <v>1</v>
+      </c>
+      <c r="AQ207">
+        <v>0</v>
+      </c>
+      <c r="AR207">
+        <v>1</v>
+      </c>
+      <c r="AS207">
+        <v>1</v>
+      </c>
+      <c r="AT207">
+        <v>1</v>
+      </c>
+      <c r="AU207">
+        <v>1</v>
+      </c>
+      <c r="AV207">
+        <v>1</v>
+      </c>
+      <c r="AW207">
+        <v>1</v>
+      </c>
+      <c r="AX207">
+        <v>1</v>
+      </c>
+      <c r="AY207">
+        <v>1</v>
+      </c>
+      <c r="AZ207">
+        <v>0</v>
+      </c>
+      <c r="BA207">
+        <v>1</v>
+      </c>
+      <c r="BB207">
+        <v>1</v>
+      </c>
+      <c r="BC207">
+        <v>1</v>
+      </c>
+      <c r="BD207">
+        <v>0</v>
+      </c>
+      <c r="BE207">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U208">
+        <v>1</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI208">
+        <v>4</v>
+      </c>
+      <c r="AJ208">
+        <v>5</v>
+      </c>
+      <c r="AK208">
+        <v>2.5</v>
+      </c>
+      <c r="AL208">
+        <v>1</v>
+      </c>
+      <c r="AM208">
+        <v>1</v>
+      </c>
+      <c r="AN208">
+        <v>1</v>
+      </c>
+      <c r="AO208">
+        <v>1</v>
+      </c>
+      <c r="AP208">
+        <v>1</v>
+      </c>
+      <c r="AQ208">
+        <v>1</v>
+      </c>
+      <c r="AR208">
+        <v>1</v>
+      </c>
+      <c r="AS208">
+        <v>1</v>
+      </c>
+      <c r="AT208">
+        <v>1</v>
+      </c>
+      <c r="AU208">
+        <v>1</v>
+      </c>
+      <c r="AV208">
+        <v>1</v>
+      </c>
+      <c r="AW208">
+        <v>1</v>
+      </c>
+      <c r="AX208">
+        <v>1</v>
+      </c>
+      <c r="AY208">
+        <v>1</v>
+      </c>
+      <c r="AZ208">
+        <v>0</v>
+      </c>
+      <c r="BA208">
+        <v>1</v>
+      </c>
+      <c r="BB208">
+        <v>1</v>
+      </c>
+      <c r="BC208">
+        <v>1</v>
+      </c>
+      <c r="BD208">
+        <v>0</v>
+      </c>
+      <c r="BE208">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+      <c r="W209" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>769</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI209">
+        <v>4</v>
+      </c>
+      <c r="AJ209">
+        <v>6</v>
+      </c>
+      <c r="AK209">
+        <v>3</v>
+      </c>
+      <c r="AL209">
+        <v>1</v>
+      </c>
+      <c r="AM209">
+        <v>1</v>
+      </c>
+      <c r="AN209">
+        <v>1</v>
+      </c>
+      <c r="AO209">
+        <v>1</v>
+      </c>
+      <c r="AP209">
+        <v>1</v>
+      </c>
+      <c r="AQ209">
+        <v>0</v>
+      </c>
+      <c r="AR209">
+        <v>1</v>
+      </c>
+      <c r="AS209">
+        <v>1</v>
+      </c>
+      <c r="AT209">
+        <v>1</v>
+      </c>
+      <c r="AU209">
+        <v>1</v>
+      </c>
+      <c r="AV209">
+        <v>1</v>
+      </c>
+      <c r="AW209">
+        <v>1</v>
+      </c>
+      <c r="AX209">
+        <v>1</v>
+      </c>
+      <c r="AY209">
+        <v>1</v>
+      </c>
+      <c r="AZ209">
+        <v>0</v>
+      </c>
+      <c r="BA209">
+        <v>1</v>
+      </c>
+      <c r="BB209">
+        <v>1</v>
+      </c>
+      <c r="BC209">
+        <v>1</v>
+      </c>
+      <c r="BD209">
+        <v>0</v>
+      </c>
+      <c r="BE209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>1</v>
+      </c>
+      <c r="W210" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI210">
+        <v>4</v>
+      </c>
+      <c r="AJ210">
+        <v>7</v>
+      </c>
+      <c r="AK210">
+        <v>3.5</v>
+      </c>
+      <c r="AL210">
+        <v>1</v>
+      </c>
+      <c r="AM210">
+        <v>1</v>
+      </c>
+      <c r="AN210">
+        <v>1</v>
+      </c>
+      <c r="AO210">
+        <v>1</v>
+      </c>
+      <c r="AP210">
+        <v>1</v>
+      </c>
+      <c r="AQ210">
+        <v>0</v>
+      </c>
+      <c r="AR210">
+        <v>1</v>
+      </c>
+      <c r="AS210">
+        <v>1</v>
+      </c>
+      <c r="AT210">
+        <v>1</v>
+      </c>
+      <c r="AU210">
+        <v>1</v>
+      </c>
+      <c r="AV210">
+        <v>1</v>
+      </c>
+      <c r="AW210">
+        <v>1</v>
+      </c>
+      <c r="AX210">
+        <v>1</v>
+      </c>
+      <c r="AY210">
+        <v>0</v>
+      </c>
+      <c r="AZ210">
+        <v>1</v>
+      </c>
+      <c r="BA210">
+        <v>1</v>
+      </c>
+      <c r="BB210">
+        <v>1</v>
+      </c>
+      <c r="BC210">
+        <v>1</v>
+      </c>
+      <c r="BD210">
+        <v>0</v>
+      </c>
+      <c r="BE210">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>725</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI211">
+        <v>4</v>
+      </c>
+      <c r="AJ211">
+        <v>9</v>
+      </c>
+      <c r="AK211">
+        <v>4.5</v>
+      </c>
+      <c r="AL211">
+        <v>1</v>
+      </c>
+      <c r="AM211">
+        <v>1</v>
+      </c>
+      <c r="AN211">
+        <v>1</v>
+      </c>
+      <c r="AO211">
+        <v>1</v>
+      </c>
+      <c r="AP211">
+        <v>1</v>
+      </c>
+      <c r="AQ211">
+        <v>0</v>
+      </c>
+      <c r="AR211">
+        <v>1</v>
+      </c>
+      <c r="AS211">
+        <v>1</v>
+      </c>
+      <c r="AT211">
+        <v>1</v>
+      </c>
+      <c r="AU211">
+        <v>1</v>
+      </c>
+      <c r="AV211">
+        <v>1</v>
+      </c>
+      <c r="AW211">
+        <v>1</v>
+      </c>
+      <c r="AX211">
+        <v>1</v>
+      </c>
+      <c r="AY211">
+        <v>1</v>
+      </c>
+      <c r="AZ211">
+        <v>0</v>
+      </c>
+      <c r="BA211">
+        <v>1</v>
+      </c>
+      <c r="BB211">
+        <v>1</v>
+      </c>
+      <c r="BC211">
+        <v>1</v>
+      </c>
+      <c r="BD211">
+        <v>0</v>
+      </c>
+      <c r="BE211">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="212" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U212">
+        <v>1</v>
+      </c>
+      <c r="V212">
+        <v>1</v>
+      </c>
+      <c r="W212" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>534</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>869</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>870</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI212">
+        <v>4</v>
+      </c>
+      <c r="AJ212">
+        <v>10</v>
+      </c>
+      <c r="AK212">
+        <v>5</v>
+      </c>
+      <c r="AL212">
+        <v>1</v>
+      </c>
+      <c r="AM212">
+        <v>1</v>
+      </c>
+      <c r="AN212">
+        <v>1</v>
+      </c>
+      <c r="AO212">
+        <v>1</v>
+      </c>
+      <c r="AP212">
+        <v>1</v>
+      </c>
+      <c r="AQ212">
+        <v>1</v>
+      </c>
+      <c r="AR212">
+        <v>1</v>
+      </c>
+      <c r="AS212">
+        <v>1</v>
+      </c>
+      <c r="AT212">
+        <v>1</v>
+      </c>
+      <c r="AU212">
+        <v>1</v>
+      </c>
+      <c r="AV212">
+        <v>1</v>
+      </c>
+      <c r="AW212">
+        <v>1</v>
+      </c>
+      <c r="AX212">
+        <v>1</v>
+      </c>
+      <c r="AY212">
+        <v>1</v>
+      </c>
+      <c r="AZ212">
+        <v>1</v>
+      </c>
+      <c r="BA212">
+        <v>1</v>
+      </c>
+      <c r="BB212">
+        <v>1</v>
+      </c>
+      <c r="BC212">
+        <v>1</v>
+      </c>
+      <c r="BD212">
+        <v>0</v>
+      </c>
+      <c r="BE212">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U213">
+        <v>1</v>
+      </c>
+      <c r="V213">
+        <v>1</v>
+      </c>
+      <c r="W213" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>853</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI213">
+        <v>4</v>
+      </c>
+      <c r="AJ213">
+        <v>11</v>
+      </c>
+      <c r="AK213">
+        <v>5.5</v>
+      </c>
+      <c r="AL213">
+        <v>1</v>
+      </c>
+      <c r="AM213">
+        <v>1</v>
+      </c>
+      <c r="AN213">
+        <v>1</v>
+      </c>
+      <c r="AO213">
+        <v>1</v>
+      </c>
+      <c r="AP213">
+        <v>1</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>1</v>
+      </c>
+      <c r="AS213">
+        <v>1</v>
+      </c>
+      <c r="AT213">
+        <v>1</v>
+      </c>
+      <c r="AU213">
+        <v>1</v>
+      </c>
+      <c r="AV213">
+        <v>1</v>
+      </c>
+      <c r="AW213">
+        <v>1</v>
+      </c>
+      <c r="AX213">
+        <v>1</v>
+      </c>
+      <c r="AY213">
+        <v>1</v>
+      </c>
+      <c r="AZ213">
+        <v>1</v>
+      </c>
+      <c r="BA213">
+        <v>1</v>
+      </c>
+      <c r="BB213">
+        <v>1</v>
+      </c>
+      <c r="BC213">
+        <v>1</v>
+      </c>
+      <c r="BD213">
+        <v>0</v>
+      </c>
+      <c r="BE213">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="214" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>921</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>922</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI214">
+        <v>4</v>
+      </c>
+      <c r="AJ214">
+        <v>12</v>
+      </c>
+      <c r="AK214">
+        <v>6</v>
+      </c>
+      <c r="AL214">
+        <v>1</v>
+      </c>
+      <c r="AM214">
+        <v>1</v>
+      </c>
+      <c r="AN214">
+        <v>1</v>
+      </c>
+      <c r="AO214">
+        <v>1</v>
+      </c>
+      <c r="AP214">
+        <v>1</v>
+      </c>
+      <c r="AQ214">
+        <v>0</v>
+      </c>
+      <c r="AR214">
+        <v>1</v>
+      </c>
+      <c r="AS214">
+        <v>1</v>
+      </c>
+      <c r="AT214">
+        <v>1</v>
+      </c>
+      <c r="AU214">
+        <v>1</v>
+      </c>
+      <c r="AV214">
+        <v>1</v>
+      </c>
+      <c r="AW214">
+        <v>1</v>
+      </c>
+      <c r="AX214">
+        <v>1</v>
+      </c>
+      <c r="AY214">
+        <v>1</v>
+      </c>
+      <c r="AZ214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>1</v>
+      </c>
+      <c r="BB214">
+        <v>1</v>
+      </c>
+      <c r="BC214">
+        <v>1</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB215" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>560</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI215">
+        <v>3</v>
+      </c>
+      <c r="AJ215">
+        <v>1</v>
+      </c>
+      <c r="AK215">
+        <v>0.5</v>
+      </c>
+      <c r="AN215">
+        <v>1</v>
+      </c>
+      <c r="AO215">
+        <v>1</v>
+      </c>
+      <c r="AP215">
+        <v>1</v>
+      </c>
+      <c r="AU215">
+        <v>1</v>
+      </c>
+      <c r="AV215">
+        <v>1</v>
+      </c>
+      <c r="AW215">
+        <v>0</v>
+      </c>
+      <c r="AX215">
+        <v>1</v>
+      </c>
+      <c r="AY215">
+        <v>1</v>
+      </c>
+      <c r="AZ215">
+        <v>1</v>
+      </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215">
+        <v>1</v>
+      </c>
+      <c r="BC215">
+        <v>1</v>
+      </c>
+      <c r="BD215">
+        <v>0</v>
+      </c>
+      <c r="BE215">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="AB216" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>784</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>785</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI216">
+        <v>3</v>
+      </c>
+      <c r="AJ216">
+        <v>4</v>
+      </c>
+      <c r="AK216">
+        <v>2</v>
+      </c>
+      <c r="AN216">
+        <v>1</v>
+      </c>
+      <c r="AO216">
+        <v>1</v>
+      </c>
+      <c r="AP216">
+        <v>1</v>
+      </c>
+      <c r="AU216">
+        <v>1</v>
+      </c>
+      <c r="AV216">
+        <v>1</v>
+      </c>
+      <c r="AW216">
+        <v>1</v>
+      </c>
+      <c r="AX216">
+        <v>1</v>
+      </c>
+      <c r="AY216">
+        <v>1</v>
+      </c>
+      <c r="AZ216">
+        <v>1</v>
+      </c>
+      <c r="BA216">
+        <v>1</v>
+      </c>
+      <c r="BB216">
+        <v>1</v>
+      </c>
+      <c r="BC216">
+        <v>1</v>
+      </c>
+      <c r="BD216">
+        <v>0</v>
+      </c>
+      <c r="BE216">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="217" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI217">
+        <v>2</v>
+      </c>
+      <c r="AJ217">
+        <v>4</v>
+      </c>
+      <c r="AK217">
+        <v>2</v>
+      </c>
+      <c r="AL217">
+        <v>1</v>
+      </c>
+      <c r="AM217">
+        <v>1</v>
+      </c>
+      <c r="AQ217">
+        <v>0</v>
+      </c>
+      <c r="AR217">
+        <v>1</v>
+      </c>
+      <c r="AS217">
+        <v>1</v>
+      </c>
+      <c r="AT217">
+        <v>1</v>
+      </c>
+      <c r="AU217">
+        <v>1</v>
+      </c>
+      <c r="AV217">
+        <v>1</v>
+      </c>
+      <c r="AW217">
+        <v>0</v>
+      </c>
+      <c r="AX217">
+        <v>0</v>
+      </c>
+      <c r="AY217">
+        <v>1</v>
+      </c>
+      <c r="AZ217">
+        <v>0</v>
+      </c>
+      <c r="BA217">
+        <v>1</v>
+      </c>
+      <c r="BB217">
+        <v>1</v>
+      </c>
+      <c r="BC217">
+        <v>1</v>
+      </c>
+      <c r="BD217">
+        <v>0</v>
+      </c>
+      <c r="BE217">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="218" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>881</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI218">
+        <v>2</v>
+      </c>
+      <c r="AJ218">
+        <v>14</v>
+      </c>
+      <c r="AK218">
+        <v>7</v>
+      </c>
+      <c r="AL218">
+        <v>1</v>
+      </c>
+      <c r="AM218">
+        <v>1</v>
+      </c>
+      <c r="AQ218">
+        <v>0</v>
+      </c>
+      <c r="AR218">
+        <v>1</v>
+      </c>
+      <c r="AS218">
+        <v>1</v>
+      </c>
+      <c r="AT218">
+        <v>1</v>
+      </c>
+      <c r="AU218">
+        <v>1</v>
+      </c>
+      <c r="AV218">
+        <v>1</v>
+      </c>
+      <c r="AW218">
+        <v>0</v>
+      </c>
+      <c r="AX218">
+        <v>0</v>
+      </c>
+      <c r="AY218">
+        <v>1</v>
+      </c>
+      <c r="AZ218">
+        <v>0</v>
+      </c>
+      <c r="BA218">
+        <v>1</v>
+      </c>
+      <c r="BB218">
+        <v>1</v>
+      </c>
+      <c r="BC218">
+        <v>1</v>
+      </c>
+      <c r="BD218">
+        <v>0</v>
+      </c>
+      <c r="BE218">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="219" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="W219">
+        <f>COUNTIF(W75:W212,"A")</f>
+        <v>7</v>
+      </c>
+      <c r="X219" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="220" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="W220">
+        <f>COUNTIF(W75:W212,"B")</f>
+        <v>1</v>
+      </c>
+      <c r="X220" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="221" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="W221">
+        <f>COUNTIF(W75:W212,"C")</f>
+        <v>1</v>
+      </c>
+      <c r="X221" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="222" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="W222">
+        <f>COUNTIF(W75:W212,"D")</f>
+        <v>7</v>
+      </c>
+      <c r="X222" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="223" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="W223">
+        <f>SUM(W219,W222)</f>
+        <v>14</v>
+      </c>
+      <c r="X223" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="224" spans="21:57" x14ac:dyDescent="0.25">
+      <c r="W224">
+        <f>SUM(W219:W222)</f>
+        <v>16</v>
+      </c>
+      <c r="X224" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="225" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W225">
+        <f>W223/W224</f>
+        <v>0.875</v>
+      </c>
+      <c r="X225" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="226" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W226">
+        <f>(((W219+W220)/W224)*((W221+W219)/W224))</f>
+        <v>0.25</v>
+      </c>
+      <c r="X226" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="227" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W227">
+        <f>(((W220+W222)/W224)*(W221+W222)/W224)</f>
+        <v>0.25</v>
+      </c>
+      <c r="X227" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="228" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W228">
+        <f>SUM(W226:W227)</f>
+        <v>0.5</v>
+      </c>
+      <c r="X228" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="229" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W229">
+        <f>W225-W228</f>
+        <v>0.375</v>
+      </c>
+      <c r="X229" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="230" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W230">
+        <f>1-W228</f>
+        <v>0.5</v>
+      </c>
+      <c r="X230" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="231" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W231">
+        <f>W229/W230</f>
+        <v>0.75</v>
+      </c>
+      <c r="X231" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Y231" t="s">
         <v>1100</v>
       </c>
     </row>
